--- a/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
+++ b/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Configura-Facil\diagramas\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8923D33-CABE-4FBB-B96B-7AB397CD358A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E4BA3E-F859-41C6-84E0-D33800152D76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Actor input</t>
   </si>
   <si>
     <t>System response</t>
-  </si>
-  <si>
-    <t>Cenário ...</t>
   </si>
   <si>
     <t>Cenário 
@@ -52,16 +49,52 @@
     <t>Pós condição:</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>Utilizador</t>
   </si>
   <si>
     <t>Escolher pacote pré-configurado</t>
+  </si>
+  <si>
+    <t>1. Apresenta lista de pacotes</t>
+  </si>
+  <si>
+    <t>2. Seleciona pacote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Confirma compatibilidade com os componentes já escolhidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Apresenta o preço com desconto </t>
+  </si>
+  <si>
+    <t>5.Confirma aquisição do pacote</t>
+  </si>
+  <si>
+    <t>1. Informa de incompatibilidade e apresenta os respetivos componentes</t>
+  </si>
+  <si>
+    <t>2. Confirma componente atual</t>
+  </si>
+  <si>
+    <t>3. Retira componentes incompatíveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alternativa 2 [Componente incompatível com existente]       Passo 3</t>
+  </si>
+  <si>
+    <t>4. Cancela aquisiçao pacotes</t>
+  </si>
+  <si>
+    <t>1. Informa cancelamento do pacote</t>
+  </si>
+  <si>
+    <t>2. Confirma componente dos pacotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excepção 1 [Cliente não aceita preço] Passo 5</t>
+  </si>
+  <si>
+    <t>4. Retorna ao passo 3</t>
   </si>
 </sst>
 </file>
@@ -98,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -110,6 +143,46 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -125,15 +198,106 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -144,7 +308,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -153,7 +319,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -164,94 +332,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -260,42 +359,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -610,56 +740,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
-        <v>3</v>
+      <c r="B6" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>0</v>
@@ -669,78 +799,158 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>2</v>
+    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
+    <row r="19" spans="2:4" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="19"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
     </row>
+    <row r="20" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="2:4" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="13"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>

--- a/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
+++ b/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelarodrigues/Desktop/Trabalhos/DSS/Configura-Facil/diagramas/UseCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E4BA3E-F859-41C6-84E0-D33800152D76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD63541-913A-884B-B11B-184C229B428E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Actor input</t>
   </si>
@@ -64,37 +64,40 @@
     <t xml:space="preserve">3. Confirma compatibilidade com os componentes já escolhidos </t>
   </si>
   <si>
-    <t xml:space="preserve">4.Apresenta o preço com desconto </t>
-  </si>
-  <si>
     <t>5.Confirma aquisição do pacote</t>
   </si>
   <si>
-    <t>1. Informa de incompatibilidade e apresenta os respetivos componentes</t>
-  </si>
-  <si>
-    <t>2. Confirma componente atual</t>
-  </si>
-  <si>
-    <t>3. Retira componentes incompatíveis</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Alternativa 2 [Componente incompatível com existente]       Passo 3</t>
   </si>
   <si>
-    <t>4. Cancela aquisiçao pacotes</t>
-  </si>
-  <si>
-    <t>1. Informa cancelamento do pacote</t>
-  </si>
-  <si>
-    <t>2. Confirma componente dos pacotes</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Excepção 1 [Cliente não aceita preço] Passo 5</t>
   </si>
   <si>
-    <t>4. Retorna ao passo 3</t>
+    <t xml:space="preserve">4. Apresenta o preço com desconto </t>
+  </si>
+  <si>
+    <t>6. Adiciona componentes do pacote aos componentes selecionados</t>
+  </si>
+  <si>
+    <t>5.1. Informa cancelamento do pacote</t>
+  </si>
+  <si>
+    <t>3.1. Informa de incompatibilidade e apresenta os respetivos componentes</t>
+  </si>
+  <si>
+    <t>3.3. Retira componentes incompatíveis</t>
+  </si>
+  <si>
+    <t>3.2 Confirma escolha de pacote</t>
+  </si>
+  <si>
+    <t>3.4. Retorna ao passo 4</t>
+  </si>
+  <si>
+    <t>3.2.1. Informa de impossibilidade de adicionar pacote</t>
+  </si>
+  <si>
+    <t>Exceção 3        [Não aceita retirar componente pré selecionados ]             Passo 3.2</t>
   </si>
 </sst>
 </file>
@@ -377,6 +380,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -422,10 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +447,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,55 +743,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
-  <dimension ref="B1:D29"/>
+  <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="4" width="67" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="72.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -798,158 +801,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+    <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="28"/>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
+    <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
+    <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
+    <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="25"/>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
+    <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25"/>
+    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25"/>
+    <row r="15" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="28"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
+    <row r="16" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>21</v>
+    <row r="17" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="19"/>
+    <row r="19" spans="2:4" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
       <c r="C19" s="6"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
-        <v>17</v>
+    <row r="20" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
       <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="16"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
       <c r="C23" s="6"/>
       <c r="D23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="2:4" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29"/>
+    <row r="26" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C2:D2"/>
@@ -959,5 +948,6 @@
     <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
+++ b/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelarodrigues/Desktop/Trabalhos/DSS/Configura-Facil/diagramas/UseCases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Configura-Facil\diagramas\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD63541-913A-884B-B11B-184C229B428E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D51EE4-EBB0-4575-AC2D-9C7C6341BB8C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -67,37 +67,37 @@
     <t>5.Confirma aquisição do pacote</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alternativa 2 [Componente incompatível com existente]       Passo 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Excepção 1 [Cliente não aceita preço] Passo 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Apresenta o preço com desconto </t>
   </si>
   <si>
     <t>6. Adiciona componentes do pacote aos componentes selecionados</t>
   </si>
   <si>
-    <t>5.1. Informa cancelamento do pacote</t>
-  </si>
-  <si>
-    <t>3.1. Informa de incompatibilidade e apresenta os respetivos componentes</t>
-  </si>
-  <si>
-    <t>3.3. Retira componentes incompatíveis</t>
-  </si>
-  <si>
     <t>3.2 Confirma escolha de pacote</t>
   </si>
   <si>
-    <t>3.4. Retorna ao passo 4</t>
-  </si>
-  <si>
-    <t>3.2.1. Informa de impossibilidade de adicionar pacote</t>
-  </si>
-  <si>
-    <t>Exceção 3        [Não aceita retirar componente pré selecionados ]             Passo 3.2</t>
+    <t>3.1. Informa de incompatibilidade e apresenta os componentes que serão removidos</t>
+  </si>
+  <si>
+    <t>Componentes primários já selecionados</t>
+  </si>
+  <si>
+    <t>Componentes do pacote adicionados à configuração</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exceção 1 [Cliente não confirma aquisição] Passo 5</t>
+  </si>
+  <si>
+    <t>5.1. Informa sobre a impossibilidade de adicionar o pacote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alternativa 2 [Componente incompatível com pré-selecionado]       Passo 3</t>
+  </si>
+  <si>
+    <t>3.3. Retira componentes primários incompatíveis</t>
+  </si>
+  <si>
+    <t>3.4. Retorna ao passo 6</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -298,20 +298,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -319,50 +306,13 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -380,36 +330,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,7 +349,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,55 +684,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
-  <dimension ref="B1:D27"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.83203125" customWidth="1"/>
-    <col min="4" max="4" width="72.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="72.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -801,153 +746,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
+    <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="17"/>
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
+    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="17"/>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
+    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="17"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="17"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="17"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21"/>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>14</v>
+    <row r="17" spans="2:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="24"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="7">
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B6:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
+++ b/diagramas/UseCases/EscolherPacotePreConfigurado.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">3.3. Retira componentes acessórios incompatíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4. Retorna ao passo 6</t>
+    <t xml:space="preserve">3.4. Retorna ao passo 4</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
